--- a/natmiOut/OldD2/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H2">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I2">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J2">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>0.02418941911800016</v>
+        <v>0.03151466937</v>
       </c>
       <c r="R2">
-        <v>0.02418941911800016</v>
+        <v>0.12605867748</v>
       </c>
       <c r="S2">
-        <v>0.0004609437635722787</v>
+        <v>0.0004562602604660189</v>
       </c>
       <c r="T2">
-        <v>0.0004609437635722787</v>
+        <v>0.0002631478617130244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H3">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I3">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J3">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>2.027026192515695</v>
+        <v>2.770914061575</v>
       </c>
       <c r="R3">
-        <v>2.027026192515695</v>
+        <v>16.62548436945</v>
       </c>
       <c r="S3">
-        <v>0.03862618930532702</v>
+        <v>0.04011649167630674</v>
       </c>
       <c r="T3">
-        <v>0.03862618930532702</v>
+        <v>0.03470574774559405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H4">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I4">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J4">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>0.01721129785055679</v>
+        <v>0.02240652579</v>
       </c>
       <c r="R4">
-        <v>0.01721129785055679</v>
+        <v>0.13443915474</v>
       </c>
       <c r="S4">
-        <v>0.000327971513846547</v>
+        <v>0.0003243951942842157</v>
       </c>
       <c r="T4">
-        <v>0.000327971513846547</v>
+        <v>0.0002806421327555992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H5">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I5">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J5">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>0.01227453957082968</v>
+        <v>0.01571451018</v>
       </c>
       <c r="R5">
-        <v>0.01227453957082968</v>
+        <v>0.09428706108000001</v>
       </c>
       <c r="S5">
-        <v>0.0002338986495829031</v>
+        <v>0.0002275101294461941</v>
       </c>
       <c r="T5">
-        <v>0.0002338986495829031</v>
+        <v>0.0001968245186004258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H6">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I6">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J6">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>0.03943898041369993</v>
+        <v>0.056910522585</v>
       </c>
       <c r="R6">
-        <v>0.03943898041369993</v>
+        <v>0.34146313551</v>
       </c>
       <c r="S6">
-        <v>0.0007515332209782795</v>
+        <v>0.0008239340718772502</v>
       </c>
       <c r="T6">
-        <v>0.0007515332209782795</v>
+        <v>0.0007128053043197864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H7">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I7">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J7">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>0.8800735433019516</v>
+        <v>1.2110382786825</v>
       </c>
       <c r="R7">
-        <v>0.8800735433019516</v>
+        <v>4.84415311473</v>
       </c>
       <c r="S7">
-        <v>0.01677032463206708</v>
+        <v>0.01753306163484579</v>
       </c>
       <c r="T7">
-        <v>0.01677032463206708</v>
+        <v>0.01011218394032359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H8">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I8">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J8">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>0.1117760278485515</v>
+        <v>0.1410608871426667</v>
       </c>
       <c r="R8">
-        <v>0.1117760278485515</v>
+        <v>0.846365322856</v>
       </c>
       <c r="S8">
-        <v>0.002129958669215482</v>
+        <v>0.002042238690612695</v>
       </c>
       <c r="T8">
-        <v>0.002129958669215482</v>
+        <v>0.001766790112270897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H9">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I9">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J9">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>9.366613354339588</v>
+        <v>12.40271922681</v>
       </c>
       <c r="R9">
-        <v>9.366613354339588</v>
+        <v>111.62447304129</v>
       </c>
       <c r="S9">
-        <v>0.1784863865648957</v>
+        <v>0.1795629787028044</v>
       </c>
       <c r="T9">
-        <v>0.1784863865648957</v>
+        <v>0.2330164172975632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H10">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I10">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J10">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>0.07953107507331496</v>
+        <v>0.1002924818475556</v>
       </c>
       <c r="R10">
-        <v>0.07953107507331496</v>
+        <v>0.9026323366280001</v>
       </c>
       <c r="S10">
-        <v>0.001515511922233957</v>
+        <v>0.001452005520137531</v>
       </c>
       <c r="T10">
-        <v>0.001515511922233957</v>
+        <v>0.001884247669775642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H11">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I11">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J11">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>0.05671898404026805</v>
+        <v>0.07033875941955557</v>
       </c>
       <c r="R11">
-        <v>0.05671898404026805</v>
+        <v>0.633048834776</v>
       </c>
       <c r="S11">
-        <v>0.001080813964237047</v>
+        <v>0.001018344197644459</v>
       </c>
       <c r="T11">
-        <v>0.001080813964237047</v>
+        <v>0.001321491313104217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H12">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I12">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J12">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>0.1822421841357825</v>
+        <v>0.2547337149357778</v>
       </c>
       <c r="R12">
-        <v>0.1822421841357825</v>
+        <v>2.292603434422</v>
       </c>
       <c r="S12">
-        <v>0.003472733174260891</v>
+        <v>0.003687960986089653</v>
       </c>
       <c r="T12">
-        <v>0.003472733174260891</v>
+        <v>0.00478581644345588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H13">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I13">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J13">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>4.0667005852857</v>
+        <v>5.420654487884334</v>
       </c>
       <c r="R13">
-        <v>4.0667005852857</v>
+        <v>32.523926927306</v>
       </c>
       <c r="S13">
-        <v>0.07749339758672773</v>
+        <v>0.07847866653783651</v>
       </c>
       <c r="T13">
-        <v>0.07749339758672773</v>
+        <v>0.06789379356124936</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.111819430566395</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H14">
-        <v>0.111819430566395</v>
+        <v>0.376468</v>
       </c>
       <c r="I14">
-        <v>0.147164792057912</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J14">
-        <v>0.147164792057912</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>0.06226652471066031</v>
+        <v>0.07150808877066665</v>
       </c>
       <c r="R14">
-        <v>0.06226652471066031</v>
+        <v>0.4290485326239999</v>
       </c>
       <c r="S14">
-        <v>0.001186525650107092</v>
+        <v>0.00103527340949957</v>
       </c>
       <c r="T14">
-        <v>0.001186525650107092</v>
+        <v>0.0008956400795893578</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.111819430566395</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H15">
-        <v>0.111819430566395</v>
+        <v>0.376468</v>
       </c>
       <c r="I15">
-        <v>0.147164792057912</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J15">
-        <v>0.147164792057912</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>5.217813453466219</v>
+        <v>6.287318656739999</v>
       </c>
       <c r="R15">
-        <v>5.217813453466219</v>
+        <v>56.58586791065999</v>
       </c>
       <c r="S15">
-        <v>0.09942853770593682</v>
+        <v>0.09102597949791065</v>
       </c>
       <c r="T15">
-        <v>0.09942853770593682</v>
+        <v>0.1181231664613353</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.111819430566395</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H16">
-        <v>0.111819430566395</v>
+        <v>0.376468</v>
       </c>
       <c r="I16">
-        <v>0.147164792057912</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J16">
-        <v>0.147164792057912</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>0.04430398670122469</v>
+        <v>0.05084133412355555</v>
       </c>
       <c r="R16">
-        <v>0.04430398670122469</v>
+        <v>0.457572007112</v>
       </c>
       <c r="S16">
-        <v>0.0008442388083689969</v>
+        <v>0.00073606611820384</v>
       </c>
       <c r="T16">
-        <v>0.0008442388083689969</v>
+        <v>0.000955182916863167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.111819430566395</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H17">
-        <v>0.111819430566395</v>
+        <v>0.376468</v>
       </c>
       <c r="I17">
-        <v>0.147164792057912</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J17">
-        <v>0.147164792057912</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>0.03159616681040133</v>
+        <v>0.03565687381155556</v>
       </c>
       <c r="R17">
-        <v>0.03159616681040133</v>
+        <v>0.320911864304</v>
       </c>
       <c r="S17">
-        <v>0.0006020837446735671</v>
+        <v>0.0005162298973109712</v>
       </c>
       <c r="T17">
-        <v>0.0006020837446735671</v>
+        <v>0.0006699044649531244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.111819430566395</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H18">
-        <v>0.111819430566395</v>
+        <v>0.376468</v>
       </c>
       <c r="I18">
-        <v>0.147164792057912</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J18">
-        <v>0.147164792057912</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>0.1015207614748179</v>
+        <v>0.1291323305097777</v>
       </c>
       <c r="R18">
-        <v>0.1015207614748179</v>
+        <v>1.162190974588</v>
       </c>
       <c r="S18">
-        <v>0.001934538471000495</v>
+        <v>0.001869540500687006</v>
       </c>
       <c r="T18">
-        <v>0.001934538471000495</v>
+        <v>0.002426077093451418</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.111819430566395</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H19">
-        <v>0.111819430566395</v>
+        <v>0.376468</v>
       </c>
       <c r="I19">
-        <v>0.147164792057912</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J19">
-        <v>0.147164792057912</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>2.265416989299734</v>
+        <v>2.747895962987333</v>
       </c>
       <c r="R19">
-        <v>2.265416989299734</v>
+        <v>16.487375777924</v>
       </c>
       <c r="S19">
-        <v>0.04316886767782502</v>
+        <v>0.03978324230809224</v>
       </c>
       <c r="T19">
-        <v>0.04316886767782502</v>
+        <v>0.03441744565270537</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0892603828851998</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H20">
-        <v>0.0892603828851998</v>
+        <v>0.28752</v>
       </c>
       <c r="I20">
-        <v>0.1174749828341353</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J20">
-        <v>0.1174749828341353</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>0.04970454426794957</v>
+        <v>0.05461289056</v>
       </c>
       <c r="R20">
-        <v>0.04970454426794957</v>
+        <v>0.32767734336</v>
       </c>
       <c r="S20">
-        <v>0.0009471496438070628</v>
+        <v>0.0007906696205237004</v>
       </c>
       <c r="T20">
-        <v>0.0009471496438070628</v>
+        <v>0.0006840274224729119</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0892603828851998</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H21">
-        <v>0.0892603828851998</v>
+        <v>0.28752</v>
       </c>
       <c r="I21">
-        <v>0.1174749828341353</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J21">
-        <v>0.1174749828341353</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>4.165143967562924</v>
+        <v>4.8018154536</v>
       </c>
       <c r="R21">
-        <v>4.165143967562924</v>
+        <v>43.2163390824</v>
       </c>
       <c r="S21">
-        <v>0.07936929476740379</v>
+        <v>0.06951929413718899</v>
       </c>
       <c r="T21">
-        <v>0.07936929476740379</v>
+        <v>0.09021423552855259</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0892603828851998</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H22">
-        <v>0.0892603828851998</v>
+        <v>0.28752</v>
       </c>
       <c r="I22">
-        <v>0.1174749828341353</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J22">
-        <v>0.1174749828341353</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>0.03536586437849903</v>
+        <v>0.03882906485333334</v>
       </c>
       <c r="R22">
-        <v>0.03536586437849903</v>
+        <v>0.34946158368</v>
       </c>
       <c r="S22">
-        <v>0.00067391757317899</v>
+        <v>0.0005621559609474592</v>
       </c>
       <c r="T22">
-        <v>0.00067391757317899</v>
+        <v>0.0007295020885081807</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0892603828851998</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H23">
-        <v>0.0892603828851998</v>
+        <v>0.28752</v>
       </c>
       <c r="I23">
-        <v>0.1174749828341353</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J23">
-        <v>0.1174749828341353</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>0.02522178777798787</v>
+        <v>0.02723223317333334</v>
       </c>
       <c r="R23">
-        <v>0.02522178777798787</v>
+        <v>0.24509009856</v>
       </c>
       <c r="S23">
-        <v>0.0004806161622027485</v>
+        <v>0.0003942603888639949</v>
       </c>
       <c r="T23">
-        <v>0.0004806161622027485</v>
+        <v>0.0005116263049271713</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0892603828851998</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H24">
-        <v>0.0892603828851998</v>
+        <v>0.28752</v>
       </c>
       <c r="I24">
-        <v>0.1174749828341353</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J24">
-        <v>0.1174749828341353</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>0.08103942216606691</v>
+        <v>0.09862226714666665</v>
       </c>
       <c r="R24">
-        <v>0.08103942216606691</v>
+        <v>0.88760040432</v>
       </c>
       <c r="S24">
-        <v>0.00154425437290277</v>
+        <v>0.00142782463518155</v>
       </c>
       <c r="T24">
-        <v>0.00154425437290277</v>
+        <v>0.001852868466666893</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0892603828851998</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H25">
-        <v>0.0892603828851998</v>
+        <v>0.28752</v>
       </c>
       <c r="I25">
-        <v>0.1174749828341353</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J25">
-        <v>0.1174749828341353</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N25">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O25">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P25">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q25">
-        <v>1.808379696044539</v>
+        <v>2.09865127256</v>
       </c>
       <c r="R25">
-        <v>1.808379696044539</v>
+        <v>12.59190763536</v>
       </c>
       <c r="S25">
-        <v>0.03445975031463993</v>
+        <v>0.03038366561944887</v>
       </c>
       <c r="T25">
-        <v>0.03445975031463993</v>
+        <v>0.02628564439491762</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.0483226329962556</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H26">
-        <v>0.0483226329962556</v>
+        <v>0.186067</v>
       </c>
       <c r="I26">
-        <v>0.06359708863266142</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J26">
-        <v>0.06359708863266142</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N26">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O26">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P26">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q26">
-        <v>0.02690840407883257</v>
+        <v>0.03534243429266666</v>
       </c>
       <c r="R26">
-        <v>0.02690840407883257</v>
+        <v>0.212054605756</v>
       </c>
       <c r="S26">
-        <v>0.000512755638625115</v>
+        <v>0.0005116775329785174</v>
       </c>
       <c r="T26">
-        <v>0.000512755638625115</v>
+        <v>0.0004426646160867672</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.0483226329962556</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H27">
-        <v>0.0483226329962556</v>
+        <v>0.186067</v>
       </c>
       <c r="I27">
-        <v>0.06359708863266142</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J27">
-        <v>0.06359708863266142</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P27">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q27">
-        <v>2.254871834685841</v>
+        <v>3.107468683935</v>
       </c>
       <c r="R27">
-        <v>2.254871834685841</v>
+        <v>27.967218155415</v>
       </c>
       <c r="S27">
-        <v>0.04296792348683524</v>
+        <v>0.04498903207507075</v>
       </c>
       <c r="T27">
-        <v>0.04296792348683524</v>
+        <v>0.05838165053593209</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.0483226329962556</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H28">
-        <v>0.0483226329962556</v>
+        <v>0.186067</v>
       </c>
       <c r="I28">
-        <v>0.06359708863266142</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J28">
-        <v>0.06359708863266142</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N28">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O28">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P28">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q28">
-        <v>0.01914591479128555</v>
+        <v>0.02512801756422222</v>
       </c>
       <c r="R28">
-        <v>0.01914591479128555</v>
+        <v>0.226152158078</v>
       </c>
       <c r="S28">
-        <v>0.0003648367899153973</v>
+        <v>0.0003637961643906889</v>
       </c>
       <c r="T28">
-        <v>0.0003648367899153973</v>
+        <v>0.0004720932982138692</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.0483226329962556</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H29">
-        <v>0.0483226329962556</v>
+        <v>0.186067</v>
       </c>
       <c r="I29">
-        <v>0.06359708863266142</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J29">
-        <v>0.06359708863266142</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N29">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O29">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P29">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q29">
-        <v>0.01365424564526754</v>
+        <v>0.01762319118622222</v>
       </c>
       <c r="R29">
-        <v>0.01365424564526754</v>
+        <v>0.158608720676</v>
       </c>
       <c r="S29">
-        <v>0.0002601897691617804</v>
+        <v>0.0002551434605410299</v>
       </c>
       <c r="T29">
-        <v>0.0002601897691617804</v>
+        <v>0.00033109617306234</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.0483226329962556</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H30">
-        <v>0.0483226329962556</v>
+        <v>0.186067</v>
       </c>
       <c r="I30">
-        <v>0.06359708863266142</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J30">
-        <v>0.06359708863266142</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N30">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O30">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P30">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q30">
-        <v>0.04387207548275919</v>
+        <v>0.06382286234411109</v>
       </c>
       <c r="R30">
-        <v>0.04387207548275919</v>
+        <v>0.5744057610969999</v>
       </c>
       <c r="S30">
-        <v>0.0008360084833001148</v>
+        <v>0.0009240089259680213</v>
       </c>
       <c r="T30">
-        <v>0.0008360084833001148</v>
+        <v>0.001199073723522916</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.0483226329962556</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H31">
-        <v>0.0483226329962556</v>
+        <v>0.186067</v>
       </c>
       <c r="I31">
-        <v>0.06359708863266142</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J31">
-        <v>0.06359708863266142</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N31">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O31">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P31">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q31">
-        <v>0.9789972386991618</v>
+        <v>1.358130725971833</v>
       </c>
       <c r="R31">
-        <v>0.9789972386991618</v>
+        <v>8.148784355830999</v>
       </c>
       <c r="S31">
-        <v>0.01865537446482377</v>
+        <v>0.01966262350728295</v>
       </c>
       <c r="T31">
-        <v>0.01865537446482377</v>
+        <v>0.01701061142052427</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.266252780454965</v>
+        <v>0.3435785</v>
       </c>
       <c r="H32">
-        <v>0.266252780454965</v>
+        <v>0.687157</v>
       </c>
       <c r="I32">
-        <v>0.3504134735083462</v>
+        <v>0.3695256686375578</v>
       </c>
       <c r="J32">
-        <v>0.3504134735083462</v>
+        <v>0.2874575814569891</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N32">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O32">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P32">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q32">
-        <v>0.1482625626825849</v>
+        <v>0.195782710969</v>
       </c>
       <c r="R32">
-        <v>0.1482625626825849</v>
+        <v>0.783130843876</v>
       </c>
       <c r="S32">
-        <v>0.002825231284240594</v>
+        <v>0.002834485415433036</v>
       </c>
       <c r="T32">
-        <v>0.002825231284240594</v>
+        <v>0.001634787950557244</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.266252780454965</v>
+        <v>0.3435785</v>
       </c>
       <c r="H33">
-        <v>0.266252780454965</v>
+        <v>0.687157</v>
       </c>
       <c r="I33">
-        <v>0.3504134735083462</v>
+        <v>0.3695256686375578</v>
       </c>
       <c r="J33">
-        <v>0.3504134735083462</v>
+        <v>0.2874575814569891</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P33">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q33">
-        <v>12.42411388471349</v>
+        <v>17.2141125920775</v>
       </c>
       <c r="R33">
-        <v>12.42411388471349</v>
+        <v>103.284675552465</v>
       </c>
       <c r="S33">
-        <v>0.2367488770662095</v>
+        <v>0.2492209390725605</v>
       </c>
       <c r="T33">
-        <v>0.2367488770662095</v>
+        <v>0.2156070653975153</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.266252780454965</v>
+        <v>0.3435785</v>
       </c>
       <c r="H34">
-        <v>0.266252780454965</v>
+        <v>0.687157</v>
       </c>
       <c r="I34">
-        <v>0.3504134735083462</v>
+        <v>0.3695256686375578</v>
       </c>
       <c r="J34">
-        <v>0.3504134735083462</v>
+        <v>0.2874575814569891</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N34">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O34">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P34">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q34">
-        <v>0.1054920382324494</v>
+        <v>0.1391989968563334</v>
       </c>
       <c r="R34">
-        <v>0.1054920382324494</v>
+        <v>0.8351939811380001</v>
       </c>
       <c r="S34">
-        <v>0.002010213510815222</v>
+        <v>0.002015282782015721</v>
       </c>
       <c r="T34">
-        <v>0.002010213510815222</v>
+        <v>0.001743469903425904</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.266252780454965</v>
+        <v>0.3435785</v>
       </c>
       <c r="H35">
-        <v>0.266252780454965</v>
+        <v>0.687157</v>
       </c>
       <c r="I35">
-        <v>0.3504134735083462</v>
+        <v>0.3695256686375578</v>
       </c>
       <c r="J35">
-        <v>0.3504134735083462</v>
+        <v>0.2874575814569891</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N35">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O35">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P35">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q35">
-        <v>0.07523350121151895</v>
+        <v>0.09762531119933335</v>
       </c>
       <c r="R35">
-        <v>0.07523350121151895</v>
+        <v>0.585751867196</v>
       </c>
       <c r="S35">
-        <v>0.001433619097093231</v>
+        <v>0.001413390995568741</v>
       </c>
       <c r="T35">
-        <v>0.001433619097093231</v>
+        <v>0.001222758753529634</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.266252780454965</v>
+        <v>0.3435785</v>
       </c>
       <c r="H36">
-        <v>0.266252780454965</v>
+        <v>0.687157</v>
       </c>
       <c r="I36">
-        <v>0.3504134735083462</v>
+        <v>0.3695256686375578</v>
       </c>
       <c r="J36">
-        <v>0.3504134735083462</v>
+        <v>0.2874575814569891</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N36">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O36">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P36">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q36">
-        <v>0.2417306623693264</v>
+        <v>0.3535526983811667</v>
       </c>
       <c r="R36">
-        <v>0.2417306623693264</v>
+        <v>2.121316190287</v>
       </c>
       <c r="S36">
-        <v>0.004606321497006209</v>
+        <v>0.005118633622899878</v>
       </c>
       <c r="T36">
-        <v>0.004606321497006209</v>
+        <v>0.004428253815210844</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.266252780454965</v>
+        <v>0.3435785</v>
       </c>
       <c r="H37">
-        <v>0.266252780454965</v>
+        <v>0.687157</v>
       </c>
       <c r="I37">
-        <v>0.3504134735083462</v>
+        <v>0.3695256686375578</v>
       </c>
       <c r="J37">
-        <v>0.3504134735083462</v>
+        <v>0.2874575814569891</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N37">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O37">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P37">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q37">
-        <v>5.39417495900074</v>
+        <v>7.523491822300251</v>
       </c>
       <c r="R37">
-        <v>5.39417495900074</v>
+        <v>30.093967289201</v>
       </c>
       <c r="S37">
-        <v>0.1027892110529814</v>
+        <v>0.1089229367490799</v>
       </c>
       <c r="T37">
-        <v>0.1027892110529814</v>
+        <v>0.06282124563675016</v>
       </c>
     </row>
   </sheetData>
